--- a/results/real_data_guru_0.2_opt_constrained/k=0.2/ROI_greedy/dataset_07/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.2_opt_constrained/k=0.2/ROI_greedy/dataset_07/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.2_opt_constrained\k=0.2\ROI_greedy\dataset_07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA6060-8547-4DD3-93F0-77AB27542C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_07_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -615,10 +704,10 @@
         <v>1.399953110050931</v>
       </c>
       <c r="R2">
-        <v>842.4238669840763</v>
+        <v>842.42386698407631</v>
       </c>
       <c r="S2">
-        <v>4.055009823182711</v>
+        <v>4.0550098231827114</v>
       </c>
       <c r="T2">
         <v>5.259052924791086</v>
@@ -627,7 +716,7 @@
         <v>1.659950958217167</v>
       </c>
       <c r="V2">
-        <v>933.077606000037</v>
+        <v>933.07760600003701</v>
       </c>
       <c r="W2">
         <v>14851</v>
@@ -639,10 +728,10 @@
         <v>14825</v>
       </c>
       <c r="Z2">
-        <v>1.001753794266442</v>
+        <v>1.0017537942664421</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.9423269809428285</v>
+        <v>0.94232698094282852</v>
       </c>
       <c r="O3">
         <v>2404</v>
@@ -692,19 +781,19 @@
         <v>410</v>
       </c>
       <c r="Q3">
-        <v>1.768732135956745</v>
+        <v>1.7687321359567449</v>
       </c>
       <c r="R3">
         <v>1268.819824257735</v>
       </c>
       <c r="S3">
-        <v>5.863414634146341</v>
+        <v>5.8634146341463413</v>
       </c>
       <c r="T3">
         <v>8.226923076923077</v>
       </c>
       <c r="U3">
-        <v>2.107412078066878</v>
+        <v>2.1074120780668779</v>
       </c>
       <c r="V3">
         <v>1331.072859702612</v>
@@ -722,7 +811,7 @@
         <v>1.006509679610551</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9768287142208087</v>
+        <v>0.97682871422080875</v>
       </c>
       <c r="O4">
         <v>2519</v>
@@ -772,22 +861,22 @@
         <v>318</v>
       </c>
       <c r="Q4">
-        <v>2.069565893572433</v>
+        <v>2.0695658935724328</v>
       </c>
       <c r="R4">
         <v>1542.878045843966</v>
       </c>
       <c r="S4">
-        <v>7.921383647798742</v>
+        <v>7.9213836477987423</v>
       </c>
       <c r="T4">
         <v>8.337883959044369</v>
       </c>
       <c r="U4">
-        <v>2.120809462240673</v>
+        <v>2.1208094622406728</v>
       </c>
       <c r="V4">
-        <v>1528.602827563483</v>
+        <v>1528.6028275634831</v>
       </c>
       <c r="W4">
         <v>23161</v>
@@ -799,10 +888,10 @@
         <v>23110</v>
       </c>
       <c r="Z4">
-        <v>1.002206836867157</v>
+        <v>1.0022068368671571</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +932,7 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.8924535180459351</v>
+        <v>0.89245351804593509</v>
       </c>
       <c r="O5">
         <v>3353</v>
@@ -855,19 +944,19 @@
         <v>1.704151789298872</v>
       </c>
       <c r="R5">
-        <v>1703.467408527688</v>
+        <v>1703.4674085276879</v>
       </c>
       <c r="S5">
-        <v>5.49672131147541</v>
+        <v>5.4967213114754099</v>
       </c>
       <c r="T5">
-        <v>7.276923076923077</v>
+        <v>7.2769230769230768</v>
       </c>
       <c r="U5">
         <v>1.984708118596296</v>
       </c>
       <c r="V5">
-        <v>1673.963833747445</v>
+        <v>1673.9638337474451</v>
       </c>
       <c r="W5">
         <v>25843</v>
@@ -882,7 +971,7 @@
         <v>1.011546892124628</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.9776707530647986</v>
+        <v>0.97767075306479856</v>
       </c>
       <c r="O6">
         <v>2636</v>
@@ -932,19 +1021,19 @@
         <v>352</v>
       </c>
       <c r="Q6">
-        <v>2.013386720024301</v>
+        <v>2.0133867200243012</v>
       </c>
       <c r="R6">
-        <v>1575.287874551446</v>
+        <v>1575.2878745514461</v>
       </c>
       <c r="S6">
-        <v>7.488636363636363</v>
+        <v>7.4886363636363633</v>
       </c>
       <c r="T6">
-        <v>8.273615635179153</v>
+        <v>8.2736156351791532</v>
       </c>
       <c r="U6">
-        <v>2.113071612425385</v>
+        <v>2.1130716124253852</v>
       </c>
       <c r="V6">
         <v>1584.287014985407</v>
@@ -959,10 +1048,10 @@
         <v>16853</v>
       </c>
       <c r="Z6">
-        <v>1.003026167447932</v>
+        <v>1.0030261674479319</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1092,7 @@
         <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9817453250222618</v>
+        <v>0.98174532502226175</v>
       </c>
       <c r="O7">
         <v>2671</v>
@@ -1012,13 +1101,13 @@
         <v>425</v>
       </c>
       <c r="Q7">
-        <v>1.838119044185544</v>
+        <v>1.8381190441855439</v>
       </c>
       <c r="R7">
         <v>1464.799406221144</v>
       </c>
       <c r="S7">
-        <v>6.284705882352942</v>
+        <v>6.2847058823529416</v>
       </c>
       <c r="T7">
         <v>7.211267605633803</v>
@@ -1027,7 +1116,7 @@
         <v>1.975644747998192</v>
       </c>
       <c r="V7">
-        <v>1503.646114460642</v>
+        <v>1503.6461144606419</v>
       </c>
       <c r="W7">
         <v>18201</v>
@@ -1039,10 +1128,10 @@
         <v>18160</v>
       </c>
       <c r="Z7">
-        <v>1.002257709251101</v>
+        <v>1.0022577092511009</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.8927370544720915</v>
+        <v>0.89273705447209151</v>
       </c>
       <c r="O8">
         <v>3604</v>
@@ -1098,16 +1187,16 @@
         <v>1875.22972641413</v>
       </c>
       <c r="S8">
-        <v>5.720634920634921</v>
+        <v>5.7206349206349207</v>
       </c>
       <c r="T8">
-        <v>10.48214285714286</v>
+        <v>10.482142857142859</v>
       </c>
       <c r="U8">
-        <v>2.349673129092947</v>
+        <v>2.3496731290929471</v>
       </c>
       <c r="V8">
-        <v>1997.091523853975</v>
+        <v>1997.0915238539751</v>
       </c>
       <c r="W8">
         <v>21630</v>
@@ -1119,10 +1208,10 @@
         <v>21311</v>
       </c>
       <c r="Z8">
-        <v>1.014968795457745</v>
+        <v>1.0149687954577451</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1252,7 @@
         <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.8850018608113137</v>
+        <v>0.88500186081131371</v>
       </c>
       <c r="O9">
         <v>3227</v>
@@ -1172,22 +1261,22 @@
         <v>540</v>
       </c>
       <c r="Q9">
-        <v>1.787739052493642</v>
+        <v>1.7877390524936421</v>
       </c>
       <c r="R9">
         <v>1721.620911653433</v>
       </c>
       <c r="S9">
-        <v>5.975925925925926</v>
+        <v>5.9759259259259263</v>
       </c>
       <c r="T9">
-        <v>7.698591549295775</v>
+        <v>7.6985915492957746</v>
       </c>
       <c r="U9">
-        <v>2.041037396452652</v>
+        <v>2.0410373964526518</v>
       </c>
       <c r="V9">
-        <v>1653.431724259308</v>
+        <v>1653.4317242593081</v>
       </c>
       <c r="W9">
         <v>23482</v>
@@ -1199,10 +1288,10 @@
         <v>23173</v>
       </c>
       <c r="Z9">
-        <v>1.013334484097873</v>
+        <v>1.0133344840978731</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1332,7 @@
         <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.9586693548387096</v>
+        <v>0.95866935483870963</v>
       </c>
       <c r="O10">
         <v>3546</v>
@@ -1258,13 +1347,13 @@
         <v>1934.074698290832</v>
       </c>
       <c r="S10">
-        <v>6.221052631578948</v>
+        <v>6.2210526315789476</v>
       </c>
       <c r="T10">
-        <v>7.958536585365854</v>
+        <v>7.9585365853658541</v>
       </c>
       <c r="U10">
-        <v>2.074245136894967</v>
+        <v>2.0742451368949668</v>
       </c>
       <c r="V10">
         <v>2002.559493873063</v>
@@ -1282,7 +1371,7 @@
         <v>1.005998829496684</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.8636363636363636</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="O11">
         <v>3491</v>
@@ -1338,16 +1427,16 @@
         <v>1534.576065381737</v>
       </c>
       <c r="S11">
-        <v>4.447133757961783</v>
+        <v>4.4471337579617831</v>
       </c>
       <c r="T11">
-        <v>6.564285714285714</v>
+        <v>6.5642857142857141</v>
       </c>
       <c r="U11">
         <v>1.881643699746383</v>
       </c>
       <c r="V11">
-        <v>1546.709646106519</v>
+        <v>1546.7096461065189</v>
       </c>
       <c r="W11">
         <v>20650</v>
@@ -1359,10 +1448,53 @@
         <v>20281</v>
       </c>
       <c r="Z11">
+        <v>1.018194369113949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.9354349667820383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0079797557734063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.86363636363636365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
         <v>1.018194369113949</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>